--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>416190.5744545758</v>
+        <v>419906.179018273</v>
       </c>
     </row>
     <row r="7">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>206.4340681578427</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>47.23830640366815</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +743,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>137.45025063969</v>
+        <v>88.93351440885131</v>
       </c>
       <c r="E3" t="n">
-        <v>43.01200336643979</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>84.31882417064563</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>128.9874563185103</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>152.6719774366699</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
         <v>369.0957251250487</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>133.4671371971241</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -981,7 +983,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>50.42174264793019</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.7129576363817</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1104,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>128.9874563185103</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>277.7387352589555</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.3273332069601</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>158.7034744856297</v>
+        <v>99.51704826962602</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>185.3566856159496</v>
@@ -1424,19 +1426,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>14.47303020949184</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.0592368460655</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1463,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V12" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>78.11832527047095</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1540,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>128.590085938789</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1582,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>243.4438153256983</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1610,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>325.224086848979</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
         <v>171.0890268032919</v>
@@ -1652,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>56.35242035234106</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,16 +1697,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>31.7489014770761</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
         <v>226.1116663261494</v>
@@ -1777,16 +1779,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7420538716369</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>235.4921832098738</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>171.0890268032919</v>
@@ -1889,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>17.06919439540853</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4995939034842342</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>50.42174264793019</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>67.69846245683961</v>
@@ -2002,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2044,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>74.5005058347455</v>
       </c>
       <c r="U19" t="n">
-        <v>277.0140198902759</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H20" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>139.3366930568769</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>276.5073094339215</v>
       </c>
     </row>
     <row r="21">
@@ -2169,13 +2171,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>16.32550790630759</v>
       </c>
       <c r="G21" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -2205,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>198.0168880161044</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2245,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>23.62900810605258</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5.479073053052391</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.355008215484</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
@@ -2369,22 +2371,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>227.441447155633</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2409,13 +2411,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>49.67353352483909</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>99.51704826962602</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>11.57315202520413</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.87115035534897</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>57.58865010757529</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>65.1039119559964</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2682,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X27" t="n">
-        <v>39.16441341490125</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y27" t="n">
         <v>190.5961130869169</v>
@@ -2719,22 +2721,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>57.03803642596198</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.2904214943273</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>176.8360690827937</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>267.0441106220179</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2877,16 +2879,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>145.5577298436975</v>
+        <v>50.42174264793019</v>
       </c>
       <c r="F30" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -2916,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
-        <v>17.2338042167189</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W30" t="n">
         <v>238.9027100790231</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>22.60550845803633</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2965,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>128.5900859387892</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>57.98989936729338</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>46.88382184991716</v>
       </c>
       <c r="G32" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157.8252483534483</v>
+        <v>89.49663856023973</v>
       </c>
       <c r="C33" t="n">
         <v>160.0866360314548</v>
@@ -3165,16 +3167,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W33" t="n">
-        <v>10.1518352840637</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W34" t="n">
-        <v>268.6107013963112</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,22 +3271,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>346.4355541432653</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>163.9350581142869</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="36">
@@ -3348,22 +3350,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>137.45025063969</v>
+        <v>37.81402298382396</v>
       </c>
       <c r="E36" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>84.5556339916489</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
         <v>216.3098444776729</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>37.76353774383359</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3478,10 +3480,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>11.57315202520368</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
@@ -3515,13 +3517,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>92.35305271980812</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>161.0459141270555</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>100.644706614497</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
         <v>127.4412149769483</v>
@@ -3600,7 +3602,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3667,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>58.06332912686938</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>39.67076193273343</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>263.0698271865801</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>297.198429479966</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
         <v>185.3566856159496</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D42" t="n">
         <v>137.45025063969</v>
@@ -3837,7 +3839,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>22.70509667010609</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3885,7 +3887,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>146.2575390893803</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>84.31882417064588</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>20.71897841161321</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>390.8378626949542</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>46.09663431817579</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -4065,13 +4067,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4119,10 +4121,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>186.1681054593057</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4135,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>56.78874461372731</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>250.543516866697</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="C2" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="D2" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="E2" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="F2" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="G2" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H2" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L2" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M2" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N2" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O2" t="n">
         <v>1778.623654917371</v>
@@ -4370,10 +4372,10 @@
         <v>644.5870563847161</v>
       </c>
       <c r="X2" t="n">
-        <v>644.5870563847161</v>
+        <v>262.5569159062094</v>
       </c>
       <c r="Y2" t="n">
-        <v>644.5870563847161</v>
+        <v>214.8414548924032</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.6793913469587</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C3" t="n">
-        <v>452.9757185879134</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D3" t="n">
-        <v>314.1370815781255</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="E3" t="n">
-        <v>270.6906135312166</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="F3" t="n">
-        <v>270.6906135312166</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G3" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H3" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
@@ -4413,10 +4415,10 @@
         <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>410.6179353667646</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>895.6512888769911</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N3" t="n">
         <v>1406.916935000113</v>
@@ -4434,25 +4436,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S3" t="n">
-        <v>2041.428536154907</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T3" t="n">
-        <v>1852.743432320892</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U3" t="n">
-        <v>1634.248639919202</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V3" t="n">
-        <v>1405.853017367536</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W3" t="n">
-        <v>1164.537148600846</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X3" t="n">
-        <v>966.6201604786407</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y3" t="n">
-        <v>774.0988341282196</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K4" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L4" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M4" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N4" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O4" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P4" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R4" t="n">
-        <v>386.0243786151989</v>
+        <v>2016.042275594663</v>
       </c>
       <c r="S4" t="n">
-        <v>172.3146160188864</v>
+        <v>1802.33251299835</v>
       </c>
       <c r="T4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="U4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="V4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="W4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>569.0623394968745</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C5" t="n">
         <v>414.8482208739757</v>
@@ -4568,16 +4570,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L5" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N5" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O5" t="n">
         <v>1778.623654917371</v>
@@ -4604,13 +4606,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.677874917562</v>
+        <v>1966.397514961856</v>
       </c>
       <c r="X5" t="n">
-        <v>1356.647734439056</v>
+        <v>1584.36737448335</v>
       </c>
       <c r="Y5" t="n">
-        <v>963.1058790148937</v>
+        <v>1190.825519059187</v>
       </c>
     </row>
     <row r="6">
@@ -4629,40 +4631,40 @@
         <v>161.3375945908657</v>
       </c>
       <c r="E6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I6" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K6" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L6" t="n">
-        <v>407.8461012713149</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M6" t="n">
-        <v>892.8794547815413</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N6" t="n">
-        <v>1404.145100904663</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O6" t="n">
-        <v>1796.345051688814</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P6" t="n">
-        <v>2098.440970964512</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q6" t="n">
         <v>2101.212805059961</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="C7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="D7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="E7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="F7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="I7" t="n">
         <v>42.02425610119923</v>
@@ -4750,25 +4752,25 @@
         <v>386.0243786151989</v>
       </c>
       <c r="S7" t="n">
-        <v>172.3146160188864</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="T7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="U7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="V7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="W7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="X7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.02425610119923</v>
+        <v>152.8454254308777</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.02425610119923</v>
+        <v>1045.096632128045</v>
       </c>
       <c r="C8" t="n">
-        <v>42.02425610119923</v>
+        <v>1045.096632128045</v>
       </c>
       <c r="D8" t="n">
-        <v>42.02425610119923</v>
+        <v>1045.096632128045</v>
       </c>
       <c r="E8" t="n">
-        <v>42.02425610119923</v>
+        <v>1045.096632128045</v>
       </c>
       <c r="F8" t="n">
-        <v>42.02425610119923</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L8" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4826,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U8" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V8" t="n">
-        <v>1007.121986527115</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W8" t="n">
-        <v>644.5870563847161</v>
+        <v>1820.668628030713</v>
       </c>
       <c r="X8" t="n">
-        <v>262.5569159062094</v>
+        <v>1438.638487552207</v>
       </c>
       <c r="Y8" t="n">
-        <v>42.02425610119923</v>
+        <v>1045.096632128045</v>
       </c>
     </row>
     <row r="9">
@@ -4881,37 +4883,37 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>271.5148086613879</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>756.5481621716143</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U9" t="n">
         <v>1940.906265175487</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.02425610119923</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C11" t="n">
-        <v>42.02425610119923</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D11" t="n">
         <v>42.02425610119923</v>
@@ -5063,28 +5065,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R11" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S11" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T11" t="n">
-        <v>1689.624883421327</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U11" t="n">
-        <v>1434.739547135321</v>
+        <v>1584.36737448335</v>
       </c>
       <c r="V11" t="n">
-        <v>1097.760273031262</v>
+        <v>1584.36737448335</v>
       </c>
       <c r="W11" t="n">
-        <v>735.225342888863</v>
+        <v>1584.36737448335</v>
       </c>
       <c r="X11" t="n">
-        <v>353.1952024103563</v>
+        <v>1584.36737448335</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.02425610119923</v>
+        <v>1190.825519059187</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>921.3370166032433</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C12" t="n">
-        <v>759.6333438441981</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D12" t="n">
-        <v>620.7947068344101</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E12" t="n">
-        <v>473.7666968912813</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F12" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G12" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I12" t="n">
         <v>42.02425610119923</v>
@@ -5130,40 +5132,40 @@
         <v>1122.37000734173</v>
       </c>
       <c r="N12" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O12" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P12" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q12" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R12" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S12" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T12" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U12" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V12" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W12" t="n">
-        <v>1471.194773857131</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X12" t="n">
-        <v>1273.277785734925</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y12" t="n">
-        <v>1080.756459384504</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="C13" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="D13" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="E13" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="F13" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="G13" t="n">
-        <v>42.02425610119923</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H13" t="n">
-        <v>42.02425610119923</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I13" t="n">
-        <v>42.02425610119923</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J13" t="n">
         <v>42.02425610119923</v>
@@ -5218,31 +5220,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R13" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S13" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T13" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U13" t="n">
-        <v>328.1806575838001</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V13" t="n">
-        <v>328.1806575838001</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W13" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X13" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.02425610119923</v>
+        <v>535.5461600008207</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>587.6654196651797</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="C14" t="n">
-        <v>587.6654196651797</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="D14" t="n">
-        <v>214.8414548924032</v>
+        <v>1772.703626424629</v>
       </c>
       <c r="E14" t="n">
-        <v>214.8414548924032</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F14" t="n">
-        <v>214.8414548924032</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G14" t="n">
-        <v>214.8414548924032</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H14" t="n">
         <v>214.8414548924032</v>
@@ -5279,16 +5281,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K14" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L14" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M14" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N14" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O14" t="n">
         <v>1778.623654917371</v>
@@ -5300,28 +5302,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S14" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T14" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U14" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V14" t="n">
-        <v>1007.121986527115</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W14" t="n">
-        <v>644.5870563847161</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X14" t="n">
-        <v>587.6654196651797</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y14" t="n">
-        <v>587.6654196651797</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>921.3370166032433</v>
+        <v>489.5945758131612</v>
       </c>
       <c r="C15" t="n">
-        <v>759.6333438441981</v>
+        <v>327.8909030541159</v>
       </c>
       <c r="D15" t="n">
-        <v>620.7947068344101</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E15" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F15" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G15" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I15" t="n">
         <v>42.02425610119923</v>
@@ -5358,16 +5360,16 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K15" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L15" t="n">
-        <v>645.0462563653213</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M15" t="n">
-        <v>1130.079609875548</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N15" t="n">
-        <v>1641.34525599867</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O15" t="n">
         <v>1641.34525599867</v>
@@ -5379,28 +5381,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>2101.212805059961</v>
+        <v>2069.143207608369</v>
       </c>
       <c r="S15" t="n">
-        <v>2101.212805059961</v>
+        <v>1916.343720621109</v>
       </c>
       <c r="T15" t="n">
-        <v>2101.212805059961</v>
+        <v>1727.658616787095</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.906265175487</v>
+        <v>1509.163824385405</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.510642623821</v>
+        <v>1280.768201833739</v>
       </c>
       <c r="W15" t="n">
-        <v>1471.194773857131</v>
+        <v>1039.452333067049</v>
       </c>
       <c r="X15" t="n">
-        <v>1273.277785734925</v>
+        <v>841.5353449448434</v>
       </c>
       <c r="Y15" t="n">
-        <v>1080.756459384504</v>
+        <v>649.0140185944222</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G16" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H16" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I16" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J16" t="n">
         <v>42.02425610119923</v>
@@ -5467,19 +5469,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U16" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V16" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y16" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2010.574518555815</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="C17" t="n">
-        <v>2010.574518555815</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="D17" t="n">
-        <v>1772.703626424629</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="E17" t="n">
-        <v>1377.917906530736</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="F17" t="n">
-        <v>963.766715840906</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="G17" t="n">
-        <v>547.662729295094</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H17" t="n">
         <v>214.8414548924032</v>
       </c>
       <c r="I17" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J17" t="n">
         <v>114.0228003740049</v>
@@ -5537,28 +5539,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S17" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T17" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U17" t="n">
-        <v>2010.574518555815</v>
+        <v>2083.971194559549</v>
       </c>
       <c r="V17" t="n">
-        <v>2010.574518555815</v>
+        <v>1746.99192045549</v>
       </c>
       <c r="W17" t="n">
-        <v>2010.574518555815</v>
+        <v>1384.456990313091</v>
       </c>
       <c r="X17" t="n">
-        <v>2010.574518555815</v>
+        <v>1002.426849834584</v>
       </c>
       <c r="Y17" t="n">
-        <v>2010.574518555815</v>
+        <v>608.8849944104223</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>620.7947068344101</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C18" t="n">
-        <v>620.7947068344101</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D18" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E18" t="n">
-        <v>473.7666968912813</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F18" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G18" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H18" t="n">
         <v>110.4065414111382</v>
@@ -5592,22 +5594,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K18" t="n">
-        <v>189.1203796867518</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L18" t="n">
-        <v>554.9422248568675</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M18" t="n">
-        <v>1039.975578367094</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N18" t="n">
-        <v>1551.241224490216</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O18" t="n">
-        <v>1943.441175274367</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P18" t="n">
         <v>1943.441175274367</v>
@@ -5647,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="C19" t="n">
         <v>42.02425610119923</v>
@@ -5692,31 +5694,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q19" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R19" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>321.8363974045083</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>321.8363974045083</v>
+        <v>498.8304651504191</v>
       </c>
       <c r="U19" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="V19" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="W19" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="X19" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1172.883275716895</v>
+        <v>1439.882352021938</v>
       </c>
       <c r="C20" t="n">
-        <v>790.949517049702</v>
+        <v>1439.882352021938</v>
       </c>
       <c r="D20" t="n">
-        <v>790.949517049702</v>
+        <v>1439.882352021938</v>
       </c>
       <c r="E20" t="n">
-        <v>790.949517049702</v>
+        <v>1045.096632128045</v>
       </c>
       <c r="F20" t="n">
-        <v>790.949517049702</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G20" t="n">
-        <v>374.84553050389</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H20" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
@@ -5753,16 +5755,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K20" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L20" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N20" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O20" t="n">
         <v>1778.623654917371</v>
@@ -5786,16 +5788,16 @@
         <v>2101.212805059961</v>
       </c>
       <c r="V20" t="n">
-        <v>1960.468670659076</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W20" t="n">
-        <v>1960.468670659076</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X20" t="n">
-        <v>1960.468670659076</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y20" t="n">
-        <v>1566.926815234914</v>
+        <v>1439.882352021938</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.3370166032433</v>
+        <v>703.195773126389</v>
       </c>
       <c r="C21" t="n">
-        <v>759.6333438441981</v>
+        <v>541.4921003673437</v>
       </c>
       <c r="D21" t="n">
-        <v>620.7947068344101</v>
+        <v>402.6534633575558</v>
       </c>
       <c r="E21" t="n">
-        <v>473.7666968912813</v>
+        <v>255.625453414427</v>
       </c>
       <c r="F21" t="n">
-        <v>339.0728988411556</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G21" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H21" t="n">
         <v>110.4065414111382</v>
@@ -5829,52 +5831,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K21" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L21" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M21" t="n">
-        <v>1182.624153874836</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N21" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O21" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P21" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S21" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T21" t="n">
-        <v>1912.527701225946</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U21" t="n">
-        <v>1912.527701225946</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V21" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W21" t="n">
-        <v>1471.194773857131</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="X21" t="n">
-        <v>1273.277785734925</v>
+        <v>1055.136542258071</v>
       </c>
       <c r="Y21" t="n">
-        <v>1080.756459384504</v>
+        <v>862.6152159076499</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.89194105680789</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="C22" t="n">
-        <v>65.89194105680789</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="D22" t="n">
-        <v>65.89194105680789</v>
+        <v>346.5139253141033</v>
       </c>
       <c r="E22" t="n">
-        <v>65.89194105680789</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="F22" t="n">
-        <v>65.89194105680789</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G22" t="n">
-        <v>65.89194105680789</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H22" t="n">
-        <v>65.89194105680789</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I22" t="n">
         <v>42.02425610119923</v>
@@ -5935,25 +5937,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>574.0835013471317</v>
+        <v>568.5490841218262</v>
       </c>
       <c r="T22" t="n">
-        <v>574.0835013471317</v>
+        <v>568.5490841218262</v>
       </c>
       <c r="U22" t="n">
-        <v>574.0835013471317</v>
+        <v>568.5490841218262</v>
       </c>
       <c r="V22" t="n">
-        <v>574.0835013471317</v>
+        <v>568.5490841218262</v>
       </c>
       <c r="W22" t="n">
-        <v>287.9270998645308</v>
+        <v>568.5490841218262</v>
       </c>
       <c r="X22" t="n">
-        <v>287.9270998645308</v>
+        <v>568.5490841218262</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.89194105680789</v>
+        <v>346.5139253141033</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>414.8482208739757</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C23" t="n">
         <v>414.8482208739757</v>
       </c>
       <c r="D23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="E23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="F23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="G23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="H23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J23" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K23" t="n">
         <v>354.1631724187877</v>
@@ -6017,22 +6019,22 @@
         <v>1823.345543186168</v>
       </c>
       <c r="T23" t="n">
-        <v>1598.98659691718</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U23" t="n">
-        <v>1344.101260631174</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="V23" t="n">
-        <v>1007.121986527115</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="W23" t="n">
-        <v>644.5870563847161</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="X23" t="n">
-        <v>414.8482208739757</v>
+        <v>1568.460206900163</v>
       </c>
       <c r="Y23" t="n">
-        <v>414.8482208739757</v>
+        <v>1174.918351476001</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>624.2883738632869</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C24" t="n">
-        <v>462.5847011042416</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D24" t="n">
-        <v>323.7460640944537</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E24" t="n">
-        <v>176.7180541513249</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F24" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G24" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H24" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
@@ -6090,28 +6092,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S24" t="n">
-        <v>2051.037518671235</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.35241483722</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U24" t="n">
-        <v>1643.85762243553</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V24" t="n">
-        <v>1415.461999883864</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W24" t="n">
-        <v>1174.146131117174</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X24" t="n">
-        <v>976.229142994969</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y24" t="n">
-        <v>783.7078166445478</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K25" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L25" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M25" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N25" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O25" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R25" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>2089.52275250925</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T25" t="n">
-        <v>1856.343799324929</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U25" t="n">
-        <v>1569.153559814029</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="V25" t="n">
-        <v>1569.153559814029</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="W25" t="n">
-        <v>1569.153559814029</v>
+        <v>74.21733726821839</v>
       </c>
       <c r="X25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y25" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1648.998911897927</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="C26" t="n">
-        <v>1267.065153230734</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="D26" t="n">
-        <v>1267.065153230734</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="E26" t="n">
-        <v>872.2794333368408</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="F26" t="n">
-        <v>458.1282426470112</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="G26" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H26" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I26" t="n">
         <v>42.02425610119923</v>
@@ -6248,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S26" t="n">
-        <v>2043.042451415946</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T26" t="n">
-        <v>2043.042451415946</v>
+        <v>1944.812991327535</v>
       </c>
       <c r="U26" t="n">
-        <v>2043.042451415946</v>
+        <v>1689.92765504153</v>
       </c>
       <c r="V26" t="n">
-        <v>2043.042451415946</v>
+        <v>1352.948380937471</v>
       </c>
       <c r="W26" t="n">
-        <v>2043.042451415946</v>
+        <v>990.4134507950719</v>
       </c>
       <c r="X26" t="n">
-        <v>2043.042451415946</v>
+        <v>608.3833103165653</v>
       </c>
       <c r="Y26" t="n">
-        <v>2043.042451415946</v>
+        <v>214.8414548924032</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K27" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L27" t="n">
-        <v>637.3366538315036</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M27" t="n">
-        <v>1122.37000734173</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N27" t="n">
-        <v>1633.635653464852</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O27" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P27" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
@@ -6330,19 +6332,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S27" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T27" t="n">
-        <v>1759.728214238687</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.233421836997</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V27" t="n">
-        <v>1312.837799285331</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W27" t="n">
-        <v>1312.837799285331</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X27" t="n">
         <v>1273.277785734925</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1626.767738022071</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C28" t="n">
-        <v>1626.767738022071</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D28" t="n">
-        <v>1626.767738022071</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>405.1637527149817</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>102.0814946870265</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>1887.503042463649</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>1887.503042463649</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.503042463649</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V28" t="n">
-        <v>1626.767738022071</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W28" t="n">
-        <v>1626.767738022071</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X28" t="n">
-        <v>1626.767738022071</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y28" t="n">
-        <v>1626.767738022071</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1370.189991437883</v>
+        <v>374.84553050389</v>
       </c>
       <c r="C29" t="n">
-        <v>988.2562327706908</v>
+        <v>374.84553050389</v>
       </c>
       <c r="D29" t="n">
-        <v>615.4322679979143</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E29" t="n">
-        <v>220.6465481040212</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F29" t="n">
-        <v>220.6465481040212</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G29" t="n">
-        <v>220.6465481040212</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H29" t="n">
         <v>42.02425610119923</v>
@@ -6485,28 +6487,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R29" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S29" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T29" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U29" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V29" t="n">
-        <v>1764.233530955903</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W29" t="n">
-        <v>1764.233530955903</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="X29" t="n">
-        <v>1764.233530955903</v>
+        <v>374.84553050389</v>
       </c>
       <c r="Y29" t="n">
-        <v>1764.233530955903</v>
+        <v>374.84553050389</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C30" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D30" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E30" t="n">
-        <v>473.7666968912813</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="F30" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G30" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H30" t="n">
         <v>110.4065414111382</v>
@@ -6540,22 +6542,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J30" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K30" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L30" t="n">
-        <v>637.3366538315036</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M30" t="n">
-        <v>1122.37000734173</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N30" t="n">
-        <v>1633.635653464852</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O30" t="n">
-        <v>2025.835604249003</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P30" t="n">
         <v>2101.212805059961</v>
@@ -6564,28 +6566,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S30" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T30" t="n">
-        <v>1948.413318072701</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U30" t="n">
-        <v>1729.918525671012</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V30" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W30" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X30" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y30" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1932.786488017904</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C31" t="n">
-        <v>1932.786488017904</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D31" t="n">
-        <v>1932.786488017904</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E31" t="n">
-        <v>1932.786488017904</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F31" t="n">
-        <v>1932.786488017904</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G31" t="n">
-        <v>1932.786488017904</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H31" t="n">
-        <v>1773.413842797178</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I31" t="n">
-        <v>1629.210798399856</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J31" t="n">
         <v>1569.153559814029</v>
@@ -6640,31 +6642,31 @@
         <v>2101.212805059961</v>
       </c>
       <c r="Q31" t="n">
-        <v>2062.675463713651</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R31" t="n">
-        <v>1932.786488017904</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S31" t="n">
-        <v>1932.786488017904</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T31" t="n">
-        <v>1932.786488017904</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U31" t="n">
-        <v>1932.786488017904</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="V31" t="n">
-        <v>1932.786488017904</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="W31" t="n">
-        <v>1932.786488017904</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="X31" t="n">
-        <v>1932.786488017904</v>
+        <v>1814.022565549061</v>
       </c>
       <c r="Y31" t="n">
-        <v>1932.786488017904</v>
+        <v>1591.987406741338</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1267.065153230734</v>
+        <v>1011.124111648903</v>
       </c>
       <c r="C32" t="n">
-        <v>1267.065153230734</v>
+        <v>1011.124111648903</v>
       </c>
       <c r="D32" t="n">
-        <v>1267.065153230734</v>
+        <v>1011.124111648903</v>
       </c>
       <c r="E32" t="n">
-        <v>872.2794333368405</v>
+        <v>1011.124111648903</v>
       </c>
       <c r="F32" t="n">
-        <v>458.1282426470108</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02425610119884</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H32" t="n">
-        <v>42.02425610119884</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I32" t="n">
-        <v>42.02425610119884</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J32" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K32" t="n">
         <v>354.1631724187873</v>
@@ -6722,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S32" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T32" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U32" t="n">
-        <v>2101.212805059961</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V32" t="n">
-        <v>2101.212805059961</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="W32" t="n">
-        <v>2101.212805059961</v>
+        <v>1393.15425212741</v>
       </c>
       <c r="X32" t="n">
-        <v>1719.182664581455</v>
+        <v>1011.124111648903</v>
       </c>
       <c r="Y32" t="n">
-        <v>1325.640809157293</v>
+        <v>1011.124111648903</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6782,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K33" t="n">
-        <v>271.5148086613879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L33" t="n">
-        <v>271.5148086613879</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M33" t="n">
         <v>737.8796590913968</v>
@@ -6813,16 +6815,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V33" t="n">
-        <v>1481.449152931943</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W33" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X33" t="n">
-        <v>1273.277785734925</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="Y33" t="n">
-        <v>1080.756459384504</v>
+        <v>1011.737661613587</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K34" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L34" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M34" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N34" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O34" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U34" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V34" t="n">
-        <v>1840.477500618384</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y34" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>764.7831240489911</v>
+        <v>1370.691675531741</v>
       </c>
       <c r="C35" t="n">
-        <v>764.7831240489911</v>
+        <v>1370.691675531741</v>
       </c>
       <c r="D35" t="n">
-        <v>391.9591592762147</v>
+        <v>1370.691675531741</v>
       </c>
       <c r="E35" t="n">
-        <v>42.02425610119923</v>
+        <v>1370.691675531741</v>
       </c>
       <c r="F35" t="n">
-        <v>42.02425610119923</v>
+        <v>956.5404848419109</v>
       </c>
       <c r="G35" t="n">
-        <v>42.02425610119923</v>
+        <v>540.436498296099</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119923</v>
+        <v>207.6152238934083</v>
       </c>
       <c r="I35" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J35" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K35" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L35" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M35" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N35" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O35" t="n">
         <v>1778.623654917371</v>
@@ -6968,19 +6970,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U35" t="n">
-        <v>1846.327468773955</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V35" t="n">
-        <v>1509.348194669897</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W35" t="n">
-        <v>1146.813264527498</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="X35" t="n">
-        <v>764.7831240489911</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="Y35" t="n">
-        <v>764.7831240489911</v>
+        <v>1370.691675531741</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>710.3492770987682</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C36" t="n">
-        <v>710.3492770987682</v>
+        <v>461.879904359699</v>
       </c>
       <c r="D36" t="n">
-        <v>571.5106400889803</v>
+        <v>423.6839215477556</v>
       </c>
       <c r="E36" t="n">
-        <v>424.4826301458515</v>
+        <v>276.6559116046268</v>
       </c>
       <c r="F36" t="n">
-        <v>339.0728988411556</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="G36" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K36" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L36" t="n">
-        <v>697.5908003646097</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M36" t="n">
-        <v>1182.624153874836</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N36" t="n">
-        <v>1693.889799997958</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O36" t="n">
-        <v>2086.089750782109</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P36" t="n">
         <v>2101.212805059961</v>
@@ -7038,28 +7040,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S36" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T36" t="n">
-        <v>1948.413318072701</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U36" t="n">
-        <v>1729.918525671012</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V36" t="n">
-        <v>1501.522903119346</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W36" t="n">
-        <v>1260.207034352656</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X36" t="n">
-        <v>1062.29004623045</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y36" t="n">
-        <v>869.7687198800292</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.16924372123316</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C37" t="n">
-        <v>80.16924372123316</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D37" t="n">
-        <v>80.16924372123316</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K37" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L37" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M37" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N37" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O37" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T37" t="n">
-        <v>340.9045481628106</v>
+        <v>1868.03385187564</v>
       </c>
       <c r="U37" t="n">
-        <v>340.9045481628106</v>
+        <v>1580.84361236474</v>
       </c>
       <c r="V37" t="n">
-        <v>80.16924372123316</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="W37" t="n">
-        <v>80.16924372123316</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="X37" t="n">
-        <v>80.16924372123316</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.16924372123316</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1277.068352925803</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="C38" t="n">
-        <v>1277.068352925803</v>
+        <v>1719.279046392769</v>
       </c>
       <c r="D38" t="n">
-        <v>1277.068352925803</v>
+        <v>1346.455081619992</v>
       </c>
       <c r="E38" t="n">
-        <v>882.2826330319097</v>
+        <v>951.6693617260989</v>
       </c>
       <c r="F38" t="n">
-        <v>468.13144234208</v>
+        <v>537.5181710362692</v>
       </c>
       <c r="G38" t="n">
-        <v>374.84553050389</v>
+        <v>537.5181710362692</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>204.6968966335785</v>
       </c>
       <c r="I38" t="n">
         <v>42.02425610119923</v>
@@ -7199,25 +7201,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S38" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T38" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U38" t="n">
-        <v>1659.098493404309</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V38" t="n">
-        <v>1659.098493404309</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W38" t="n">
-        <v>1659.098493404309</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X38" t="n">
-        <v>1277.068352925803</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y38" t="n">
-        <v>1277.068352925803</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>681.083616046014</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C39" t="n">
-        <v>519.3799432869687</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D39" t="n">
-        <v>519.3799432869687</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E39" t="n">
-        <v>372.3519333438399</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F39" t="n">
-        <v>270.6906135312166</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G39" t="n">
-        <v>141.9621135545012</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H39" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I39" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>331.768955194494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L39" t="n">
-        <v>697.5908003646097</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M39" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N39" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O39" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P39" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q39" t="n">
         <v>2101.212805059961</v>
@@ -7278,25 +7280,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T39" t="n">
-        <v>1759.728214238687</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U39" t="n">
-        <v>1541.233421836997</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V39" t="n">
-        <v>1312.837799285331</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W39" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X39" t="n">
-        <v>873.6049423964351</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y39" t="n">
-        <v>681.083616046014</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="C40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="D40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E40" t="n">
-        <v>1949.20379082128</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F40" t="n">
-        <v>1796.723135847057</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G40" t="n">
-        <v>1627.803387214907</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H40" t="n">
         <v>1569.153559814029</v>
@@ -7363,19 +7365,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>2061.141328360231</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>1800.406023918653</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>1800.406023918653</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>1569.153559814029</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1519.940290172296</v>
+        <v>1429.803687762007</v>
       </c>
       <c r="C41" t="n">
-        <v>1138.006531505104</v>
+        <v>1047.869929094814</v>
       </c>
       <c r="D41" t="n">
-        <v>872.2794333368408</v>
+        <v>675.0459643220374</v>
       </c>
       <c r="E41" t="n">
-        <v>872.2794333368408</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F41" t="n">
-        <v>458.1282426470112</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H41" t="n">
         <v>42.02425610119923</v>
@@ -7409,19 +7411,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J41" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K41" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L41" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M41" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N41" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O41" t="n">
         <v>1778.623654917371</v>
@@ -7433,28 +7435,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S41" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T41" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U41" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V41" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W41" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="X41" t="n">
-        <v>1913.983829690315</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="Y41" t="n">
-        <v>1913.983829690315</v>
+        <v>1429.803687762007</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>714.1854996151742</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C42" t="n">
-        <v>714.1854996151742</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D42" t="n">
-        <v>575.3468626053863</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E42" t="n">
-        <v>428.3188526622575</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F42" t="n">
-        <v>293.6250546121319</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G42" t="n">
-        <v>164.8965546354164</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H42" t="n">
-        <v>64.95869718211448</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
@@ -7491,22 +7493,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K42" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L42" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M42" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N42" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O42" t="n">
-        <v>1641.34525599867</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P42" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q42" t="n">
         <v>2101.212805059961</v>
@@ -7515,25 +7517,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S42" t="n">
-        <v>1948.413318072701</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T42" t="n">
-        <v>1759.728214238687</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U42" t="n">
-        <v>1541.233421836997</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V42" t="n">
-        <v>1312.837799285331</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X42" t="n">
-        <v>873.6049423964351</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y42" t="n">
-        <v>873.6049423964351</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>127.1947855664981</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="C43" t="n">
-        <v>127.1947855664981</v>
+        <v>195.0961492734365</v>
       </c>
       <c r="D43" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E43" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F43" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G43" t="n">
         <v>42.02425610119923</v>
@@ -7594,25 +7596,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V43" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W43" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X43" t="n">
-        <v>127.1947855664981</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="Y43" t="n">
-        <v>127.1947855664981</v>
+        <v>342.8310372425075</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1460.81061304377</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="C44" t="n">
-        <v>1460.81061304377</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="D44" t="n">
-        <v>1439.882352021938</v>
+        <v>1267.065153230734</v>
       </c>
       <c r="E44" t="n">
-        <v>1045.096632128045</v>
+        <v>872.2794333368408</v>
       </c>
       <c r="F44" t="n">
-        <v>630.9454414382152</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G44" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H44" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I44" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J44" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L44" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N44" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O44" t="n">
         <v>1778.623654917371</v>
@@ -7670,28 +7672,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T44" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U44" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V44" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W44" t="n">
-        <v>1460.81061304377</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X44" t="n">
-        <v>1460.81061304377</v>
+        <v>2054.650548172915</v>
       </c>
       <c r="Y44" t="n">
-        <v>1460.81061304377</v>
+        <v>1661.108692748753</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>852.9547312933042</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C45" t="n">
-        <v>691.251058534259</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D45" t="n">
-        <v>552.412421524471</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E45" t="n">
-        <v>405.3844115813423</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F45" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G45" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H45" t="n">
         <v>42.02425610119923</v>
@@ -7728,49 +7730,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K45" t="n">
-        <v>44.796090196649</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L45" t="n">
-        <v>410.6179353667646</v>
+        <v>407.8461012713149</v>
       </c>
       <c r="M45" t="n">
-        <v>895.6512888769911</v>
+        <v>892.8794547815413</v>
       </c>
       <c r="N45" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O45" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P45" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q45" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S45" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T45" t="n">
-        <v>1888.629049167647</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U45" t="n">
-        <v>1670.134256765957</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V45" t="n">
-        <v>1441.738634214291</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W45" t="n">
-        <v>1200.422765447601</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X45" t="n">
-        <v>1012.374174074565</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y45" t="n">
-        <v>1012.374174074565</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>404.4675318088119</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>251.3956386365747</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>99.38662439789348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
         <v>42.02425610119923</v>
@@ -7837,19 +7839,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V46" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W46" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X46" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
@@ -7997,7 +7999,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8061,13 +8063,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
-        <v>192.2208680885929</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
-        <v>623.1450866466196</v>
+        <v>333.2735058407155</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8216,7 +8218,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8228,7 +8230,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>495.0402356415689</v>
+        <v>495.0402356415685</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
@@ -8292,13 +8294,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>192.2208680885929</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
@@ -8313,7 +8315,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.5350238645387</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K8" t="n">
         <v>421.3890363425141</v>
@@ -8471,7 +8473,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8529,28 +8531,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>604.2880128282179</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O9" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>355.9386573756997</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8778,16 +8780,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>234.7709975048689</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8927,7 +8929,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8942,7 +8944,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229274</v>
+        <v>418.3383206229271</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9006,10 +9008,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L15" t="n">
-        <v>429.0171519255188</v>
+        <v>264.6642244265669</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9018,7 +9020,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9240,13 +9242,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>260.5781121823764</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>264.6642244265669</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9258,7 +9260,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9401,7 +9403,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425138</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9477,7 +9479,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9489,16 +9491,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>234.7709975048689</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9954,10 +9956,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L27" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9969,10 +9971,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10130,7 +10132,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10188,7 +10190,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10206,7 +10208,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>184.992792701879</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q30" t="n">
         <v>113.7351914448925</v>
@@ -10428,13 +10430,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>112.5754335711478</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M33" t="n">
-        <v>586.5595090565984</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>421.3890363425141</v>
@@ -10662,7 +10664,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
         <v>343.8048081163522</v>
@@ -10677,10 +10679,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>512.0210150597484</v>
+        <v>283.012208529709</v>
       </c>
       <c r="P36" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10899,13 +10901,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10917,10 +10919,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11078,7 +11080,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11139,10 +11141,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11154,10 +11156,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11312,7 +11314,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11376,7 +11378,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K45" t="n">
-        <v>114.7960015863129</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11385,7 +11387,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>623.1450866466196</v>
+        <v>466.5796364545544</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11396,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>171.6803529226779</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -22565,7 +22567,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>342.3681304662522</v>
       </c>
     </row>
     <row r="3">
@@ -22629,22 +22631,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>48.51673623083873</v>
       </c>
       <c r="E3" t="n">
-        <v>102.5457264772577</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>63.70773940111994</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>101.8597073339676</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22784,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>225.4424436438508</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22844,7 +22846,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>225.4424436438509</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22869,7 +22871,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>95.13598719576729</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F6" t="n">
         <v>133.3468600696244</v>
@@ -22881,7 +22883,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22960,7 +22962,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7610139533483</v>
+        <v>33.04805631696655</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -22990,10 +22992,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>101.8597073339676</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
@@ -23030,16 +23032,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>81.17084558201947</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>171.2791036629602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -23154,7 +23156,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>57.60636999204326</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23191,16 +23193,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>390.8378626949542</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23312,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>237.8634527136541</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>81.54720002385483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23349,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>160.7843848085521</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23428,16 +23430,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2305511458285</v>
+        <v>38.64046520703948</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>148.0265635717656</v>
@@ -23470,13 +23472,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U13" t="n">
-        <v>40.87452179009284</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23498,19 +23500,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>43.87163827606969</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>321.8574187213806</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -23583,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.18642621600367</v>
+        <v>27.43752473892757</v>
       </c>
       <c r="S15" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23665,16 +23667,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4884972741916158</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>133.6035419151749</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23777,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
         <v>185.3566856159496</v>
@@ -23786,19 +23788,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>235.2672885277373</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.325654449964</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>95.13598719576729</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T19" t="n">
-        <v>230.8471636524779</v>
+        <v>156.3466578177324</v>
       </c>
       <c r="U19" t="n">
-        <v>7.304317225515206</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,16 +24028,16 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>194.2727883061412</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>113.0991274359989</v>
       </c>
     </row>
     <row r="21">
@@ -24057,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>117.0213521633168</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>28.09477831004497</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24133,10 +24135,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.2305511458285</v>
@@ -24145,7 +24147,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
-        <v>119.1320058472957</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J22" t="n">
         <v>59.456666199969</v>
@@ -24175,7 +24177,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>211.5726649703493</v>
+        <v>206.0935919172969</v>
       </c>
       <c r="T22" t="n">
         <v>230.8471636524779</v>
@@ -24187,7 +24189,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>15.74809590735492</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24257,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
-        <v>150.7683919180886</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24297,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>101.597958592548</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>199.9995129451452</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>197.068789108229</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>127.7680355083743</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>157.0114448503026</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24570,22 +24572,22 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>156.7734048260821</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24607,22 +24609,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>93.45088767033236</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7789187685189</v>
+        <v>0.4884972741915874</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T28" t="n">
         <v>230.8471636524779</v>
@@ -24658,7 +24660,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
@@ -24695,7 +24697,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>152.6569925758701</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>171.0890268032919</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>111.1657284517037</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24765,16 +24767,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>95.13598719576729</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>208.8778621094305</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>159.1143065394997</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24853,13 +24855,13 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>19.43647763297633</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
         <v>211.5726649703493</v>
@@ -24892,7 +24894,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
@@ -24904,7 +24906,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>332.1132047555456</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
@@ -24923,19 +24925,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>363.1258569330142</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
@@ -24971,19 +24973,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>68.32860979320854</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25053,16 +25055,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>228.7508747949593</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="34">
@@ -25132,10 +25134,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W34" t="n">
-        <v>14.68413607146363</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25157,22 +25159,22 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>44.40230855168892</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>171.0890268032919</v>
+        <v>7.153968689005012</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,19 +25210,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25236,22 +25238,22 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>99.63622765586608</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>48.79122607797549</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>112.7253863524608</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
         <v>150.9558484244806</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>246.5547993719579</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
@@ -25391,10 +25393,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>319.5898939605457</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>10.04311267623649</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
         <v>333.6094813630181</v>
@@ -25454,7 +25456,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25467,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>32.70215345512736</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25488,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,13 +25520,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
-        <v>99.71558964164953</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -25603,16 +25605,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>244.6475751830577</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>106.0258979384686</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>93.63943321498823</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>171.0890268032919</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25725,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>44.99336578673351</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,13 +25757,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,10 +25788,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>21.66227075355624</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -25798,7 +25800,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>82.9117269751826</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -25834,10 +25836,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
         <v>284.3183371157911</v>
@@ -25849,7 +25851,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>348.3767467134355</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
         <v>222.1153568062989</v>
@@ -25925,13 +25927,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>332.1132047555458</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25953,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -25989,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26007,10 +26009,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>9.769712781677669</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26023,16 +26025,16 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>94.16710381075333</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>167.2305511458285</v>
@@ -26077,13 +26079,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>653189.709525076</v>
+        <v>653189.7095250759</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>653189.709525076</v>
+        <v>653189.7095250761</v>
       </c>
     </row>
     <row r="5">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653189.7095250762</v>
+        <v>653189.709525076</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>653189.709525076</v>
+        <v>653189.7095250761</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>653189.7095250762</v>
+        <v>653189.7095250761</v>
       </c>
     </row>
     <row r="15">
@@ -26335,7 +26337,7 @@
         <v>121781.1322843363</v>
       </c>
       <c r="J2" t="n">
-        <v>121781.1322843363</v>
+        <v>121781.1322843362</v>
       </c>
       <c r="K2" t="n">
         <v>121781.1322843363</v>
@@ -26344,7 +26346,7 @@
         <v>121781.1322843363</v>
       </c>
       <c r="M2" t="n">
-        <v>121781.1322843363</v>
+        <v>121781.1322843362</v>
       </c>
       <c r="N2" t="n">
         <v>121781.1322843363</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="C4" t="n">
         <v>399.9854922104111</v>
@@ -26424,7 +26426,7 @@
         <v>399.9854922104111</v>
       </c>
       <c r="E4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="F4" t="n">
         <v>399.9854922104111</v>
@@ -26442,7 +26444,7 @@
         <v>399.9854922104112</v>
       </c>
       <c r="K4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="L4" t="n">
         <v>399.9854922104112</v>
@@ -26451,13 +26453,13 @@
         <v>399.9854922104111</v>
       </c>
       <c r="N4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="O4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="P4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
     </row>
     <row r="5">
@@ -26522,10 +26524,10 @@
         <v>-120226.0725623129</v>
       </c>
       <c r="C6" t="n">
+        <v>55815.11215521448</v>
+      </c>
+      <c r="D6" t="n">
         <v>55815.11215521445</v>
-      </c>
-      <c r="D6" t="n">
-        <v>55815.11215521443</v>
       </c>
       <c r="E6" t="n">
         <v>89442.71215521447</v>
@@ -26534,34 +26536,34 @@
         <v>89442.71215521444</v>
       </c>
       <c r="G6" t="n">
-        <v>89442.71215521448</v>
+        <v>89442.71215521445</v>
       </c>
       <c r="H6" t="n">
+        <v>89442.71215521445</v>
+      </c>
+      <c r="I6" t="n">
         <v>89442.71215521447</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>-47999.7186365627</v>
+      </c>
+      <c r="K6" t="n">
+        <v>89442.71215521445</v>
+      </c>
+      <c r="L6" t="n">
         <v>89442.71215521444</v>
       </c>
-      <c r="J6" t="n">
-        <v>-47999.71863656264</v>
-      </c>
-      <c r="K6" t="n">
-        <v>89442.7121552145</v>
-      </c>
-      <c r="L6" t="n">
-        <v>89442.71215521447</v>
-      </c>
       <c r="M6" t="n">
-        <v>89442.71215521445</v>
+        <v>89442.71215521442</v>
       </c>
       <c r="N6" t="n">
         <v>89442.71215521445</v>
       </c>
       <c r="O6" t="n">
-        <v>89442.7121552145</v>
+        <v>89442.71215521447</v>
       </c>
       <c r="P6" t="n">
-        <v>89442.71215521447</v>
+        <v>89442.71215521448</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
@@ -34717,7 +34719,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
-        <v>79.64543451744507</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
-        <v>516.4299455789112</v>
+        <v>226.5583647730072</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34936,7 +34938,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34948,7 +34950,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>308.0854388614484</v>
+        <v>308.0854388614481</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>79.64543451744507</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
@@ -35033,7 +35035,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K8" t="n">
         <v>242.5660323684674</v>
@@ -35191,7 +35193,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>497.5728717605097</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O9" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>247.0844513515564</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>516.4299455789112</v>
+        <v>128.0558564371606</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P12" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
         <v>351.3993667524709</v>
@@ -35662,7 +35664,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q14" t="n">
         <v>95.38611483488586</v>
@@ -35726,10 +35728,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>316.4417183543709</v>
+        <v>152.0887908554191</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
@@ -35738,7 +35740,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
         <v>305.147393207775</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>148.5819430157097</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>369.5170153233491</v>
+        <v>152.0887908554191</v>
       </c>
       <c r="M18" t="n">
         <v>489.93268031336</v>
@@ -35978,7 +35980,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
         <v>159.3652826117113</v>
@@ -36121,7 +36123,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>242.5660323684671</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>231.8086389496855</v>
@@ -36209,16 +36211,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>516.4299455789112</v>
+        <v>128.0558564371606</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M27" t="n">
         <v>489.93268031336</v>
@@ -36689,10 +36691,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q29" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
         <v>231.8086389496855</v>
@@ -36926,7 +36928,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P30" t="n">
-        <v>76.13858667773572</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M33" t="n">
-        <v>471.0756064949585</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
         <v>516.4299455789112</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
         <v>242.5660323684674</v>
@@ -37321,7 +37323,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>230.4615115717706</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.8086389496855</v>
@@ -37397,10 +37399,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O36" t="n">
-        <v>396.1615664486372</v>
+        <v>167.1527599185979</v>
       </c>
       <c r="P36" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M39" t="n">
         <v>489.93268031336</v>
@@ -37637,10 +37639,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
@@ -37874,10 +37876,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q44" t="n">
         <v>95.38611483488586</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38105,7 +38107,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>516.4299455789112</v>
+        <v>359.864495386846</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
@@ -38114,7 +38116,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>419906.179018273</v>
+        <v>351911.0110679988</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340089</v>
+        <v>714286.6128340086</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12179384.22975869</v>
+        <v>12179384.22975868</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>31.01179194358541</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.23830640366815</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>76.30553556433132</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>88.93351440885131</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.31882417064563</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>246.6791133066637</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>133.4671371971241</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.7129576363817</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>267.7240639014403</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>277.7387352589555</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -1223,16 +1223,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>99.51704826962602</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>128.9874563185103</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>378.1144210805207</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>169.5575180439339</v>
       </c>
       <c r="U11" t="n">
-        <v>14.47303020949184</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
@@ -1511,7 +1511,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
-        <v>78.11832527047095</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>128.590085938789</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>325.224086848979</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0890268032919</v>
+        <v>165.389385360782</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>85.20029420312652</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>31.7489014770761</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>216.3098444776729</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>243.4438153256983</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>121.9659142318964</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>17.06919439540853</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,10 +1931,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>50.42174264793019</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>74.5005058347455</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>27.62276416108898</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>411.9429466803539</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>276.5073094339215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>16.32550790630759</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T21" t="n">
         <v>186.7982527956746</v>
@@ -2222,7 +2222,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>5.479073053052391</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.355008215484</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>303.7426484217443</v>
       </c>
     </row>
     <row r="24">
@@ -2408,16 +2408,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>99.51704826962602</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W25" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>31.87115035534897</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>65.1039119559964</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>252.3364829231459</v>
@@ -2617,13 +2617,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>342.1189657189439</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2645,16 +2645,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V27" t="n">
         <v>226.1116663261494</v>
@@ -2727,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.2904214943273</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>79.08965525476252</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
         <v>329.4930616586638</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>222.1153568062989</v>
@@ -2854,10 +2854,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>267.0441106220179</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,10 +2876,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
-        <v>137.45025063969</v>
+        <v>110.0127259007624</v>
       </c>
       <c r="E30" t="n">
-        <v>50.42174264793019</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.60550845803633</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>46.88382184991716</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
         <v>411.9429466803539</v>
@@ -3049,7 +3049,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>274.1977568459722</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>89.49663856023973</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
         <v>160.0866360314548</v>
@@ -3119,16 +3119,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3173,10 +3173,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="34">
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>243.4438153256983</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>79.05034342381366</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>163.9350581142869</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -3347,10 +3347,10 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
-        <v>37.81402298382396</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
         <v>145.5577298436975</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T36" t="n">
         <v>186.7982527956746</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>29.87929749257486</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3468,22 +3468,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>11.57315202520368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>161.0459141270555</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>214.0107447826389</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U39" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>118.1217773000171</v>
       </c>
       <c r="U40" t="n">
-        <v>39.67076193273343</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>297.198429479966</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>79.08965525476252</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3830,16 +3830,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>31.74890147707598</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U42" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>146.2575390893803</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>148.4527730888575</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.9429466803539</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>46.09663431817579</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>242.420315677682</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>187.2399190274182</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214.8414548924032</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="C2" t="n">
-        <v>214.8414548924032</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="D2" t="n">
-        <v>214.8414548924032</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H2" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I2" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J2" t="n">
         <v>114.0228003740049</v>
@@ -4357,25 +4357,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S2" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T2" t="n">
-        <v>1598.98659691718</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U2" t="n">
-        <v>1344.101260631174</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V2" t="n">
-        <v>1007.121986527115</v>
+        <v>1979.249476188557</v>
       </c>
       <c r="W2" t="n">
-        <v>644.5870563847161</v>
+        <v>1979.249476188557</v>
       </c>
       <c r="X2" t="n">
-        <v>262.5569159062094</v>
+        <v>1597.21933571005</v>
       </c>
       <c r="Y2" t="n">
-        <v>214.8414548924032</v>
+        <v>1203.677480285888</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>461.879904359699</v>
+        <v>544.2230485911302</v>
       </c>
       <c r="C3" t="n">
-        <v>300.1762316006536</v>
+        <v>544.2230485911302</v>
       </c>
       <c r="D3" t="n">
-        <v>210.3443988644402</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="E3" t="n">
-        <v>210.3443988644402</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F3" t="n">
-        <v>210.3443988644402</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G3" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H3" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
@@ -4418,16 +4418,16 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N3" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O3" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P3" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K4" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L4" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M4" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N4" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O4" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>2016.042275594663</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S4" t="n">
-        <v>1802.33251299835</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T4" t="n">
-        <v>1569.153559814029</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U4" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V4" t="n">
-        <v>1569.153559814029</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>796.7819795411683</v>
+        <v>291.1950776230818</v>
       </c>
       <c r="C5" t="n">
-        <v>414.8482208739757</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D5" t="n">
         <v>42.02425610119923</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T5" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U5" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V5" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="W5" t="n">
-        <v>1966.397514961856</v>
+        <v>1460.81061304377</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.36737448335</v>
+        <v>1078.780472565263</v>
       </c>
       <c r="Y5" t="n">
-        <v>1190.825519059187</v>
+        <v>685.2386171411009</v>
       </c>
     </row>
     <row r="6">
@@ -4646,10 +4646,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L6" t="n">
         <v>410.6179353667646</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I7" t="n">
         <v>42.02425610119923</v>
@@ -4746,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>386.0243786151989</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S7" t="n">
-        <v>386.0243786151989</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="T7" t="n">
-        <v>152.8454254308777</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="U7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y7" t="n">
-        <v>152.8454254308777</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1045.096632128045</v>
+        <v>707.2383233702847</v>
       </c>
       <c r="C8" t="n">
-        <v>1045.096632128045</v>
+        <v>707.2383233702847</v>
       </c>
       <c r="D8" t="n">
-        <v>1045.096632128045</v>
+        <v>707.2383233702847</v>
       </c>
       <c r="E8" t="n">
-        <v>1045.096632128045</v>
+        <v>312.4526034763915</v>
       </c>
       <c r="F8" t="n">
-        <v>630.9454414382152</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4834,22 +4834,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W8" t="n">
-        <v>1820.668628030713</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="X8" t="n">
-        <v>1438.638487552207</v>
+        <v>1494.823718312466</v>
       </c>
       <c r="Y8" t="n">
-        <v>1045.096632128045</v>
+        <v>1101.281862888304</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4886,49 +4886,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L9" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>953.1336013146474</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N9" t="n">
-        <v>1464.39924743777</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O9" t="n">
-        <v>1856.59919822192</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T9" t="n">
-        <v>2041.428536154907</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="10">
@@ -4983,22 +4983,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R10" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S10" t="n">
-        <v>172.3146160188864</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>42.02425610119923</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W10" t="n">
         <v>42.02425610119923</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>796.7819795411683</v>
+        <v>1210.933170230998</v>
       </c>
       <c r="C11" t="n">
-        <v>414.8482208739757</v>
+        <v>828.9994115638053</v>
       </c>
       <c r="D11" t="n">
-        <v>42.02425610119923</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="E11" t="n">
-        <v>42.02425610119923</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F11" t="n">
         <v>42.02425610119923</v>
@@ -5044,16 +5044,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K11" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L11" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M11" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N11" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O11" t="n">
         <v>1778.623654917371</v>
@@ -5065,28 +5065,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R11" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S11" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T11" t="n">
-        <v>1598.98659691718</v>
+        <v>1929.942584813563</v>
       </c>
       <c r="U11" t="n">
-        <v>1584.36737448335</v>
+        <v>1929.942584813563</v>
       </c>
       <c r="V11" t="n">
-        <v>1584.36737448335</v>
+        <v>1592.963310709505</v>
       </c>
       <c r="W11" t="n">
-        <v>1584.36737448335</v>
+        <v>1592.963310709505</v>
       </c>
       <c r="X11" t="n">
-        <v>1584.36737448335</v>
+        <v>1210.933170230998</v>
       </c>
       <c r="Y11" t="n">
-        <v>1190.825519059187</v>
+        <v>1210.933170230998</v>
       </c>
     </row>
     <row r="12">
@@ -5126,37 +5126,37 @@
         <v>271.5148086613879</v>
       </c>
       <c r="L12" t="n">
-        <v>637.3366538315036</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N12" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O12" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P12" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q12" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R12" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S12" t="n">
-        <v>1888.629049167647</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T12" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U12" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V12" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W12" t="n">
         <v>1174.146131117174</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C13" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D13" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E13" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F13" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G13" t="n">
-        <v>405.6571843050742</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H13" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I13" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J13" t="n">
         <v>42.02425610119923</v>
@@ -5220,31 +5220,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q13" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R13" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S13" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T13" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U13" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V13" t="n">
-        <v>535.5461600008207</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W13" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X13" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y13" t="n">
-        <v>535.5461600008207</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="C14" t="n">
-        <v>2101.212805059961</v>
+        <v>625.1882278599223</v>
       </c>
       <c r="D14" t="n">
-        <v>1772.703626424629</v>
+        <v>625.1882278599223</v>
       </c>
       <c r="E14" t="n">
-        <v>1377.917906530736</v>
+        <v>625.1882278599223</v>
       </c>
       <c r="F14" t="n">
-        <v>963.766715840906</v>
+        <v>625.1882278599223</v>
       </c>
       <c r="G14" t="n">
-        <v>547.662729295094</v>
+        <v>209.0842413141103</v>
       </c>
       <c r="H14" t="n">
-        <v>214.8414548924032</v>
+        <v>209.0842413141103</v>
       </c>
       <c r="I14" t="n">
         <v>42.02425610119923</v>
@@ -5302,28 +5302,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S14" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T14" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V14" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W14" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="X14" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="Y14" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>489.5945758131612</v>
+        <v>710.3492770987682</v>
       </c>
       <c r="C15" t="n">
-        <v>327.8909030541159</v>
+        <v>548.6456043397229</v>
       </c>
       <c r="D15" t="n">
-        <v>189.052266044328</v>
+        <v>409.806967329935</v>
       </c>
       <c r="E15" t="n">
-        <v>42.02425610119923</v>
+        <v>262.7789573868062</v>
       </c>
       <c r="F15" t="n">
-        <v>42.02425610119923</v>
+        <v>128.0851593366806</v>
       </c>
       <c r="G15" t="n">
-        <v>42.02425610119923</v>
+        <v>128.0851593366806</v>
       </c>
       <c r="H15" t="n">
         <v>42.02425610119923</v>
@@ -5360,49 +5360,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L15" t="n">
-        <v>252.8463055811703</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M15" t="n">
-        <v>737.8796590913968</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N15" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O15" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P15" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R15" t="n">
-        <v>2069.143207608369</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S15" t="n">
-        <v>1916.343720621109</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T15" t="n">
-        <v>1727.658616787095</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U15" t="n">
-        <v>1509.163824385405</v>
+        <v>1729.918525671012</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.768201833739</v>
+        <v>1501.522903119346</v>
       </c>
       <c r="W15" t="n">
-        <v>1039.452333067049</v>
+        <v>1260.207034352656</v>
       </c>
       <c r="X15" t="n">
-        <v>841.5353449448434</v>
+        <v>1062.29004623045</v>
       </c>
       <c r="Y15" t="n">
-        <v>649.0140185944222</v>
+        <v>869.7687198800292</v>
       </c>
     </row>
     <row r="16">
@@ -5469,10 +5469,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U16" t="n">
-        <v>328.1806575838001</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V16" t="n">
-        <v>328.1806575838001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W16" t="n">
         <v>42.02425610119923</v>
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>214.8414548924032</v>
+        <v>756.7792891710826</v>
       </c>
       <c r="C17" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="D17" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="E17" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="F17" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="G17" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H17" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I17" t="n">
-        <v>42.02425610119924</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J17" t="n">
         <v>114.0228003740049</v>
@@ -5539,28 +5539,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S17" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T17" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U17" t="n">
-        <v>2083.971194559549</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V17" t="n">
-        <v>1746.99192045549</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="W17" t="n">
-        <v>1384.456990313091</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="X17" t="n">
-        <v>1002.426849834584</v>
+        <v>879.9771823346143</v>
       </c>
       <c r="Y17" t="n">
-        <v>608.8849944104223</v>
+        <v>879.9771823346143</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>461.879904359699</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C18" t="n">
-        <v>300.1762316006536</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D18" t="n">
-        <v>161.3375945908657</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E18" t="n">
-        <v>110.4065414111382</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F18" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G18" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I18" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2784026343054</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L18" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M18" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N18" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O18" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P18" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q18" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S18" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T18" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U18" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V18" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W18" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X18" t="n">
-        <v>813.8206734913811</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y18" t="n">
-        <v>621.2993471409599</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C19" t="n">
         <v>42.02425610119923</v>
@@ -5703,22 +5703,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>498.8304651504191</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>211.6402256395189</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V19" t="n">
-        <v>211.6402256395189</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W19" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X19" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y19" t="n">
-        <v>211.6402256395189</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1439.882352021938</v>
+        <v>867.9637832951018</v>
       </c>
       <c r="C20" t="n">
-        <v>1439.882352021938</v>
+        <v>486.0300246279092</v>
       </c>
       <c r="D20" t="n">
-        <v>1439.882352021938</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="E20" t="n">
-        <v>1045.096632128045</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F20" t="n">
-        <v>630.9454414382152</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="G20" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H20" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
@@ -5755,16 +5755,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K20" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L20" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N20" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O20" t="n">
         <v>1778.623654917371</v>
@@ -5776,28 +5776,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R20" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S20" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T20" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U20" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="V20" t="n">
-        <v>2101.212805059961</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="W20" t="n">
-        <v>2101.212805059961</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="X20" t="n">
-        <v>1719.182664581455</v>
+        <v>1262.007322813121</v>
       </c>
       <c r="Y20" t="n">
-        <v>1439.882352021938</v>
+        <v>1262.007322813121</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>703.195773126389</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C21" t="n">
-        <v>541.4921003673437</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D21" t="n">
-        <v>402.6534633575558</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E21" t="n">
-        <v>255.625453414427</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F21" t="n">
-        <v>239.1350413878537</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G21" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J21" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K21" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L21" t="n">
-        <v>637.3366538315036</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M21" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N21" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O21" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P21" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S21" t="n">
-        <v>1888.629049167647</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T21" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U21" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V21" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W21" t="n">
-        <v>1253.053530380276</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X21" t="n">
-        <v>1055.136542258071</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y21" t="n">
-        <v>862.6152159076499</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>346.5139253141033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C22" t="n">
-        <v>346.5139253141033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D22" t="n">
-        <v>346.5139253141033</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E22" t="n">
-        <v>194.5049110754221</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F22" t="n">
         <v>42.02425610119923</v>
@@ -5937,25 +5937,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S22" t="n">
-        <v>568.5490841218262</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T22" t="n">
-        <v>568.5490841218262</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U22" t="n">
-        <v>568.5490841218262</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V22" t="n">
-        <v>568.5490841218262</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W22" t="n">
-        <v>568.5490841218262</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X22" t="n">
-        <v>568.5490841218262</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y22" t="n">
-        <v>346.5139253141033</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>796.7819795411683</v>
+        <v>790.949517049702</v>
       </c>
       <c r="C23" t="n">
-        <v>414.8482208739757</v>
+        <v>790.949517049702</v>
       </c>
       <c r="D23" t="n">
-        <v>42.02425610119928</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E23" t="n">
-        <v>42.02425610119928</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F23" t="n">
-        <v>42.02425610119928</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G23" t="n">
-        <v>42.02425610119928</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H23" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119928</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J23" t="n">
-        <v>114.022800374005</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K23" t="n">
         <v>354.1631724187877</v>
@@ -6013,28 +6013,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R23" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S23" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T23" t="n">
-        <v>1823.345543186168</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U23" t="n">
-        <v>1568.460206900163</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V23" t="n">
-        <v>1568.460206900163</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="W23" t="n">
-        <v>1568.460206900163</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="X23" t="n">
-        <v>1568.460206900163</v>
+        <v>1097.760273031262</v>
       </c>
       <c r="Y23" t="n">
-        <v>1174.918351476001</v>
+        <v>790.949517049702</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C24" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D24" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E24" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F24" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G24" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
@@ -6071,49 +6071,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K24" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L24" t="n">
-        <v>407.8461012713149</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M24" t="n">
-        <v>892.8794547815413</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N24" t="n">
-        <v>1404.145100904663</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O24" t="n">
-        <v>1796.345051688814</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P24" t="n">
-        <v>2098.440970964512</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S24" t="n">
-        <v>2041.428536154907</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T24" t="n">
-        <v>2041.428536154907</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U24" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V24" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W24" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X24" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y24" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="25">
@@ -6174,19 +6174,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T25" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U25" t="n">
-        <v>360.3737387508193</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V25" t="n">
-        <v>360.3737387508193</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W25" t="n">
-        <v>74.21733726821839</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X25" t="n">
         <v>42.02425610119923</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>214.8414548924032</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="C26" t="n">
-        <v>214.8414548924032</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="D26" t="n">
-        <v>214.8414548924032</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E26" t="n">
-        <v>214.8414548924032</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F26" t="n">
-        <v>214.8414548924032</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G26" t="n">
-        <v>214.8414548924032</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H26" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I26" t="n">
         <v>42.02425610119923</v>
@@ -6250,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S26" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T26" t="n">
-        <v>1944.812991327535</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U26" t="n">
-        <v>1689.92765504153</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V26" t="n">
-        <v>1352.948380937471</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W26" t="n">
-        <v>990.4134507950719</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="X26" t="n">
-        <v>608.3833103165653</v>
+        <v>1163.773481822479</v>
       </c>
       <c r="Y26" t="n">
-        <v>214.8414548924032</v>
+        <v>1163.773481822479</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C27" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D27" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E27" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F27" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G27" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
@@ -6308,22 +6308,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K27" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L27" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M27" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N27" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O27" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P27" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.212805059961</v>
@@ -6332,25 +6332,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S27" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T27" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U27" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V27" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W27" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X27" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y27" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C28" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D28" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E28" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F28" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>405.1637527149817</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
-        <v>246.284539084348</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J28" t="n">
         <v>42.02425610119923</v>
@@ -6417,19 +6417,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V28" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W28" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X28" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y28" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.84553050389</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="C29" t="n">
-        <v>374.84553050389</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="D29" t="n">
-        <v>374.84553050389</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="E29" t="n">
-        <v>374.84553050389</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F29" t="n">
-        <v>374.84553050389</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G29" t="n">
         <v>374.84553050389</v>
@@ -6487,28 +6487,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R29" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S29" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T29" t="n">
-        <v>1598.98659691718</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U29" t="n">
-        <v>1344.101260631174</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V29" t="n">
-        <v>1007.121986527115</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="W29" t="n">
-        <v>644.5870563847161</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="X29" t="n">
-        <v>374.84553050389</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="Y29" t="n">
-        <v>374.84553050389</v>
+        <v>1284.989248400908</v>
       </c>
     </row>
     <row r="30">
@@ -6524,19 +6524,19 @@
         <v>300.1762316006536</v>
       </c>
       <c r="D30" t="n">
-        <v>161.3375945908657</v>
+        <v>189.052266044328</v>
       </c>
       <c r="E30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J31" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K31" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L31" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M31" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N31" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O31" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T31" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U31" t="n">
-        <v>1814.022565549061</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V31" t="n">
-        <v>1814.022565549061</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W31" t="n">
-        <v>1814.022565549061</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X31" t="n">
-        <v>1814.022565549061</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y31" t="n">
-        <v>1591.987406741338</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1011.124111648903</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="C32" t="n">
-        <v>1011.124111648903</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="D32" t="n">
-        <v>1011.124111648903</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="E32" t="n">
-        <v>1011.124111648903</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F32" t="n">
-        <v>963.766715840906</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G32" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H32" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I32" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J32" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K32" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L32" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M32" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N32" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O32" t="n">
         <v>1778.623654917371</v>
@@ -6724,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T32" t="n">
-        <v>2010.574518555815</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U32" t="n">
-        <v>1755.689182269809</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V32" t="n">
-        <v>1755.689182269809</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="W32" t="n">
-        <v>1393.15425212741</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="X32" t="n">
-        <v>1011.124111648903</v>
+        <v>1599.886427633425</v>
       </c>
       <c r="Y32" t="n">
-        <v>1011.124111648903</v>
+        <v>1599.886427633425</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C33" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D33" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E33" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F33" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G33" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I33" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K33" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L33" t="n">
-        <v>252.8463055811703</v>
+        <v>331.768955194494</v>
       </c>
       <c r="M33" t="n">
-        <v>737.8796590913968</v>
+        <v>816.8023087047204</v>
       </c>
       <c r="N33" t="n">
         <v>1249.145305214519</v>
@@ -6803,28 +6803,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S33" t="n">
-        <v>1888.629049167647</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T33" t="n">
-        <v>1699.943945333632</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U33" t="n">
-        <v>1481.449152931943</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V33" t="n">
-        <v>1253.053530380276</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.737661613587</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X33" t="n">
-        <v>1011.737661613587</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y33" t="n">
-        <v>1011.737661613587</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="34">
@@ -6894,7 +6894,7 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V34" t="n">
-        <v>328.1806575838001</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W34" t="n">
         <v>42.02425610119923</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1370.691675531741</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="C35" t="n">
-        <v>1370.691675531741</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="D35" t="n">
-        <v>1370.691675531741</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="E35" t="n">
-        <v>1370.691675531741</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="F35" t="n">
-        <v>956.5404848419109</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G35" t="n">
-        <v>540.436498296099</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H35" t="n">
-        <v>207.6152238934083</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I35" t="n">
         <v>42.02425610119923</v>
@@ -6961,28 +6961,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R35" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S35" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T35" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="V35" t="n">
-        <v>1764.233530955903</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="W35" t="n">
-        <v>1764.233530955903</v>
+        <v>1486.36626908211</v>
       </c>
       <c r="X35" t="n">
-        <v>1764.233530955903</v>
+        <v>1104.336128603603</v>
       </c>
       <c r="Y35" t="n">
-        <v>1370.691675531741</v>
+        <v>710.7942731794411</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>461.879904359699</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C36" t="n">
-        <v>461.879904359699</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D36" t="n">
-        <v>423.6839215477556</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E36" t="n">
-        <v>276.6559116046268</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F36" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G36" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H36" t="n">
         <v>42.02425610119923</v>
@@ -7031,7 +7031,7 @@
         <v>1633.635653464852</v>
       </c>
       <c r="O36" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P36" t="n">
         <v>2101.212805059961</v>
@@ -7040,28 +7040,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S36" t="n">
-        <v>1888.629049167647</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T36" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U36" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V36" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.737661613587</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X36" t="n">
-        <v>813.8206734913811</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y36" t="n">
-        <v>621.2993471409599</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1569.153559814029</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="C37" t="n">
-        <v>1569.153559814029</v>
+        <v>216.4084090768792</v>
       </c>
       <c r="D37" t="n">
-        <v>1569.153559814029</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="E37" t="n">
-        <v>1569.153559814029</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="F37" t="n">
-        <v>1569.153559814029</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="G37" t="n">
-        <v>1569.153559814029</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="H37" t="n">
-        <v>1569.153559814029</v>
+        <v>186.2273004985207</v>
       </c>
       <c r="I37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J37" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K37" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L37" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M37" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N37" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O37" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P37" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q37" t="n">
-        <v>2101.212805059961</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R37" t="n">
-        <v>2101.212805059961</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S37" t="n">
-        <v>2101.212805059961</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="T37" t="n">
-        <v>1868.03385187564</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="U37" t="n">
-        <v>1580.84361236474</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="V37" t="n">
-        <v>1569.153559814029</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="W37" t="n">
-        <v>1569.153559814029</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="X37" t="n">
-        <v>1569.153559814029</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="Y37" t="n">
-        <v>1569.153559814029</v>
+        <v>386.0243786151989</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2101.212805059961</v>
+        <v>790.949517049702</v>
       </c>
       <c r="C38" t="n">
-        <v>1719.279046392769</v>
+        <v>790.949517049702</v>
       </c>
       <c r="D38" t="n">
-        <v>1346.455081619992</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E38" t="n">
-        <v>951.6693617260989</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F38" t="n">
-        <v>537.5181710362692</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G38" t="n">
-        <v>537.5181710362692</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H38" t="n">
-        <v>204.6968966335785</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I38" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J38" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L38" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M38" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N38" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O38" t="n">
         <v>1778.623654917371</v>
@@ -7198,28 +7198,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R38" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S38" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T38" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V38" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W38" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="X38" t="n">
-        <v>2101.212805059961</v>
+        <v>790.949517049702</v>
       </c>
       <c r="Y38" t="n">
-        <v>2101.212805059961</v>
+        <v>790.949517049702</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C39" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D39" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E39" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F39" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G39" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I39" t="n">
         <v>42.02425610119923</v>
@@ -7256,22 +7256,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>42.02425610119923</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L39" t="n">
-        <v>252.8463055811703</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M39" t="n">
-        <v>737.8796590913968</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N39" t="n">
-        <v>1249.145305214519</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O39" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q39" t="n">
         <v>2101.212805059961</v>
@@ -7280,25 +7280,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S39" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T39" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U39" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V39" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W39" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X39" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y39" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1569.153559814029</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="C40" t="n">
-        <v>1569.153559814029</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="D40" t="n">
-        <v>1569.153559814029</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="E40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>454.7685747814578</v>
       </c>
       <c r="U40" t="n">
-        <v>2061.141328360231</v>
+        <v>454.7685747814578</v>
       </c>
       <c r="V40" t="n">
-        <v>1800.406023918653</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="W40" t="n">
-        <v>1800.406023918653</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="X40" t="n">
-        <v>1569.153559814029</v>
+        <v>194.0332703398804</v>
       </c>
       <c r="Y40" t="n">
-        <v>1569.153559814029</v>
+        <v>194.0332703398804</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1429.803687762007</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="C41" t="n">
-        <v>1047.869929094814</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="D41" t="n">
-        <v>675.0459643220374</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="E41" t="n">
-        <v>374.84553050389</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="F41" t="n">
-        <v>374.84553050389</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G41" t="n">
         <v>374.84553050389</v>
@@ -7411,19 +7411,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J41" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K41" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L41" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M41" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N41" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O41" t="n">
         <v>1778.623654917371</v>
@@ -7435,28 +7435,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R41" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S41" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T41" t="n">
-        <v>1823.345543186168</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U41" t="n">
-        <v>1823.345543186168</v>
+        <v>1621.968522504967</v>
       </c>
       <c r="V41" t="n">
-        <v>1823.345543186168</v>
+        <v>1284.989248400908</v>
       </c>
       <c r="W41" t="n">
-        <v>1823.345543186168</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="X41" t="n">
-        <v>1823.345543186168</v>
+        <v>1205.100707739532</v>
       </c>
       <c r="Y41" t="n">
-        <v>1429.803687762007</v>
+        <v>1205.100707739532</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>921.3370166032433</v>
+        <v>521.6641732647531</v>
       </c>
       <c r="C42" t="n">
-        <v>759.6333438441981</v>
+        <v>359.9605005057078</v>
       </c>
       <c r="D42" t="n">
-        <v>620.7947068344101</v>
+        <v>221.1218634959199</v>
       </c>
       <c r="E42" t="n">
-        <v>473.7666968912813</v>
+        <v>74.09385355279113</v>
       </c>
       <c r="F42" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G42" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I42" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J42" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K42" t="n">
-        <v>271.5148086613879</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L42" t="n">
-        <v>637.3366538315036</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M42" t="n">
-        <v>1122.37000734173</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N42" t="n">
-        <v>1633.635653464852</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O42" t="n">
-        <v>2025.835604249003</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P42" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q42" t="n">
         <v>2101.212805059961</v>
@@ -7517,25 +7517,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S42" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T42" t="n">
-        <v>2101.212805059961</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U42" t="n">
-        <v>1940.906265175487</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V42" t="n">
-        <v>1712.510642623821</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W42" t="n">
-        <v>1471.194773857131</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X42" t="n">
-        <v>1273.277785734925</v>
+        <v>873.6049423964351</v>
       </c>
       <c r="Y42" t="n">
-        <v>1080.756459384504</v>
+        <v>681.083616046014</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C43" t="n">
-        <v>195.0961492734365</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D43" t="n">
         <v>42.02425610119923</v>
@@ -7602,19 +7602,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V43" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W43" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y43" t="n">
-        <v>342.8310372425075</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1267.065153230734</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="C44" t="n">
-        <v>1267.065153230734</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="D44" t="n">
-        <v>1267.065153230734</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="E44" t="n">
-        <v>872.2794333368408</v>
+        <v>458.1282426470112</v>
       </c>
       <c r="F44" t="n">
         <v>458.1282426470112</v>
@@ -7648,19 +7648,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J44" t="n">
-        <v>114.0228003740046</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L44" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
         <v>1778.623654917371</v>
@@ -7675,25 +7675,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T44" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U44" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V44" t="n">
-        <v>2101.212805059961</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W44" t="n">
-        <v>2101.212805059961</v>
+        <v>990.1106791748689</v>
       </c>
       <c r="X44" t="n">
-        <v>2054.650548172915</v>
+        <v>608.0805386963623</v>
       </c>
       <c r="Y44" t="n">
-        <v>1661.108692748753</v>
+        <v>608.0805386963623</v>
       </c>
     </row>
     <row r="45">
@@ -7727,16 +7727,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J45" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K45" t="n">
-        <v>42.02425610119923</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L45" t="n">
-        <v>407.8461012713149</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M45" t="n">
-        <v>892.8794547815413</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N45" t="n">
         <v>1249.145305214519</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="C46" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="D46" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="E46" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="F46" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="G46" t="n">
-        <v>42.02425610119923</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H46" t="n">
         <v>42.02425610119923</v>
@@ -7839,19 +7839,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V46" t="n">
-        <v>286.8932618362315</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W46" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X46" t="n">
-        <v>42.02425610119923</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.02425610119923</v>
+        <v>384.9522700063052</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +7999,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8066,10 +8066,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N3" t="n">
-        <v>333.2735058407155</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
@@ -8078,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8230,7 +8230,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O5" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
         <v>418.3383206229274</v>
@@ -8294,13 +8294,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L6" t="n">
-        <v>192.2208680885929</v>
+        <v>253.0836423644577</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
         <v>421.3890363425141</v>
@@ -8534,13 +8534,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8549,10 +8549,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8692,7 +8692,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
         <v>542.9595789155856</v>
@@ -8774,13 +8774,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>482.0924488944969</v>
+        <v>253.0836423644577</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>234.7709975048689</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8789,7 +8789,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8944,7 +8944,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9008,10 +9008,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9023,10 +9023,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9242,13 +9242,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
         <v>605.4165828749999</v>
@@ -9257,13 +9257,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>283.012208529709</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9403,7 +9403,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9479,19 +9479,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>424.0295070382783</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>234.7709975048689</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9500,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9719,10 +9719,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>253.0836423644577</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>116.5350238645387</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9956,10 +9956,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
@@ -9968,13 +9968,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>283.012208529709</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10132,7 +10132,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q29" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R29" t="n">
         <v>85.43134583487716</v>
@@ -10427,19 +10427,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>325.5269987024317</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>543.4252385523532</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10679,10 +10679,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>283.012208529709</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10904,10 +10904,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>325.5269987024317</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
@@ -10916,13 +10916,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>283.012208529709</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11138,10 +11138,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11153,13 +11153,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>294.5927905918182</v>
       </c>
       <c r="P42" t="n">
-        <v>184.992792701879</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11375,10 +11375,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
@@ -11387,7 +11387,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>466.5796364545544</v>
+        <v>173.9082232290041</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>410.0096787829314</v>
@@ -22567,7 +22567,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>302.5976894194326</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.3681304662522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>81.51971278911695</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>48.51673623083873</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>63.70773940111994</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -22786,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>131.435307773857</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
@@ -22846,7 +22846,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>225.4424436438509</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22962,7 +22962,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>33.04805631696655</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>117.1789128644329</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -23029,19 +23029,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>142.285614881491</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -23083,7 +23083,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>81.17084558201947</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23111,16 +23111,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>116.7927962080469</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>101.8597073339676</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>411.9429466803539</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>52.55783876236501</v>
       </c>
       <c r="U11" t="n">
-        <v>237.8634527136541</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23399,7 +23399,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>160.7843848085521</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>38.64046520703948</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
         <v>148.0265635717656</v>
@@ -23475,10 +23475,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>228.939939463578</v>
@@ -23497,25 +23497,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>43.87163827606969</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>5.699641442509972</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>358.909580840975</v>
@@ -23585,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>13.73818467564242</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>27.43752473892757</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U16" t="n">
-        <v>40.87452179009284</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
         <v>228.939939463578</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>268.1371898909425</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>369.0957251250487</v>
@@ -23749,10 +23749,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>235.2672885277373</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23819,10 +23819,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>95.13598719576729</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -23831,7 +23831,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -23943,16 +23943,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T19" t="n">
-        <v>156.3466578177324</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>341.4729609639597</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>113.0991274359989</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>117.0213521633168</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>167.2305511458285</v>
@@ -24177,16 +24177,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>206.0935919172969</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T22" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
@@ -24195,7 +24195,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15.74809590735492</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
@@ -24220,10 +24220,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>171.0890268032919</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>358.909580840975</v>
@@ -24274,7 +24274,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>85.86378844817602</v>
       </c>
     </row>
     <row r="24">
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>116.7927962080469</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>197.068789108229</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24448,7 +24448,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
@@ -24457,13 +24457,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>157.0114448503026</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>16.79061512203106</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24533,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,13 +24572,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24615,16 +24615,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4884972741915874</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -24685,16 +24685,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>369.0957251250487</v>
+        <v>290.0060698702861</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>111.1657284517037</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -24764,10 +24764,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>27.43752473892768</v>
       </c>
       <c r="E30" t="n">
-        <v>95.13598719576729</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -24779,7 +24779,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>159.1143065394997</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24900,13 +24900,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>40.8745217900929</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24925,10 +24925,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>363.1258569330142</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>59.41172451704585</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>68.32860979320854</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25134,10 +25134,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
-        <v>14.68413607146334</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>311.0527606990253</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
@@ -25165,16 +25165,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
-        <v>7.153968689005012</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>222.1153568062989</v>
@@ -25219,7 +25219,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25235,10 +25235,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>99.63622765586608</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25250,7 +25250,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
         <v>67.69846245683961</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>121.66187674794</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -25332,7 +25332,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>59.456666199969</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>246.5547993719579</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
@@ -25393,25 +25393,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>10.04311267623649</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>164.1990942910826</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -25602,10 +25602,10 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T40" t="n">
-        <v>230.8471636524779</v>
+        <v>112.7253863524608</v>
       </c>
       <c r="U40" t="n">
-        <v>244.6475751830577</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
         <v>219.8148072196457</v>
@@ -25630,19 +25630,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>93.63943321498823</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>279.8199255862124</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>101.5979585925484</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,13 +25757,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>21.66227075355624</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -25842,16 +25842,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>40.87452179009284</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.6503310339814</v>
       </c>
       <c r="C44" t="n">
         <v>378.1144210805207</v>
@@ -25873,10 +25873,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>332.1132047555458</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -26040,7 +26040,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
@@ -26079,19 +26079,19 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V46" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>40.8745217900929</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>32.57488819222749</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>653189.7095250759</v>
+        <v>653189.7095250761</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>653189.7095250761</v>
+        <v>653189.709525076</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>653189.7095250761</v>
+        <v>653189.709525076</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653189.709525076</v>
+        <v>653189.7095250761</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>653189.709525076</v>
+        <v>653189.7095250761</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>653189.7095250761</v>
+        <v>653189.7095250762</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>653189.7095250761</v>
+        <v>653189.709525076</v>
       </c>
     </row>
     <row r="15">
@@ -26328,7 +26328,7 @@
         <v>121781.1322843363</v>
       </c>
       <c r="G2" t="n">
-        <v>121781.1322843363</v>
+        <v>121781.1322843362</v>
       </c>
       <c r="H2" t="n">
         <v>121781.1322843363</v>
@@ -26337,19 +26337,19 @@
         <v>121781.1322843363</v>
       </c>
       <c r="J2" t="n">
+        <v>121781.1322843363</v>
+      </c>
+      <c r="K2" t="n">
         <v>121781.1322843362</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>121781.1322843362</v>
+      </c>
+      <c r="M2" t="n">
         <v>121781.1322843363</v>
       </c>
-      <c r="L2" t="n">
-        <v>121781.1322843363</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>121781.1322843362</v>
-      </c>
-      <c r="N2" t="n">
-        <v>121781.1322843363</v>
       </c>
       <c r="O2" t="n">
         <v>121781.1322843363</v>
@@ -26420,22 +26420,22 @@
         <v>399.9854922104112</v>
       </c>
       <c r="C4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="D4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="E4" t="n">
         <v>399.9854922104112</v>
       </c>
       <c r="F4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="G4" t="n">
         <v>399.9854922104112</v>
       </c>
       <c r="H4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="I4" t="n">
         <v>399.9854922104112</v>
@@ -26444,19 +26444,19 @@
         <v>399.9854922104112</v>
       </c>
       <c r="K4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="L4" t="n">
         <v>399.9854922104112</v>
       </c>
       <c r="M4" t="n">
-        <v>399.9854922104111</v>
+        <v>399.9854922104112</v>
       </c>
       <c r="N4" t="n">
         <v>399.9854922104112</v>
       </c>
       <c r="O4" t="n">
-        <v>399.9854922104112</v>
+        <v>399.9854922104111</v>
       </c>
       <c r="P4" t="n">
         <v>399.9854922104112</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120226.0725623129</v>
+        <v>-128345.6620488187</v>
       </c>
       <c r="C6" t="n">
-        <v>55815.11215521448</v>
+        <v>47695.5226687087</v>
       </c>
       <c r="D6" t="n">
-        <v>55815.11215521445</v>
+        <v>47695.52266870867</v>
       </c>
       <c r="E6" t="n">
-        <v>89442.71215521447</v>
+        <v>81323.1226687087</v>
       </c>
       <c r="F6" t="n">
-        <v>89442.71215521444</v>
+        <v>81323.12266870865</v>
       </c>
       <c r="G6" t="n">
-        <v>89442.71215521445</v>
+        <v>81323.12266870863</v>
       </c>
       <c r="H6" t="n">
-        <v>89442.71215521445</v>
+        <v>81323.12266870867</v>
       </c>
       <c r="I6" t="n">
-        <v>89442.71215521447</v>
+        <v>81323.12266870866</v>
       </c>
       <c r="J6" t="n">
-        <v>-47999.7186365627</v>
+        <v>-56119.30812306848</v>
       </c>
       <c r="K6" t="n">
-        <v>89442.71215521445</v>
+        <v>81323.12266870862</v>
       </c>
       <c r="L6" t="n">
-        <v>89442.71215521444</v>
+        <v>81323.12266870863</v>
       </c>
       <c r="M6" t="n">
-        <v>89442.71215521442</v>
+        <v>81323.12266870866</v>
       </c>
       <c r="N6" t="n">
-        <v>89442.71215521445</v>
+        <v>81323.12266870863</v>
       </c>
       <c r="O6" t="n">
-        <v>89442.71215521447</v>
+        <v>81323.12266870867</v>
       </c>
       <c r="P6" t="n">
-        <v>89442.71215521448</v>
+        <v>81323.12266870865</v>
       </c>
     </row>
   </sheetData>
@@ -34719,7 +34719,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,10 +34786,10 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N3" t="n">
-        <v>226.5583647730072</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
@@ -34798,7 +34798,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O5" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
         <v>230.4615115717709</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L6" t="n">
-        <v>79.64543451744507</v>
+        <v>140.5082087933099</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
         <v>242.5660323684674</v>
@@ -35254,13 +35254,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35269,10 +35269,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
         <v>351.3993667524709</v>
@@ -35494,13 +35494,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>369.5170153233491</v>
+        <v>140.5082087933099</v>
       </c>
       <c r="M12" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>128.0558564371606</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
@@ -35509,7 +35509,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P14" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
         <v>95.38611483488586</v>
@@ -35728,10 +35728,10 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
@@ -35743,10 +35743,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M18" t="n">
         <v>489.93268031336</v>
@@ -35977,13 +35977,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>396.1615664486372</v>
+        <v>167.1527599185979</v>
       </c>
       <c r="P18" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
@@ -36141,7 +36141,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>311.4540734671306</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N21" t="n">
-        <v>128.0558564371606</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O21" t="n">
         <v>396.1615664486372</v>
@@ -36220,7 +36220,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>140.5082087933099</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36457,7 +36457,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L27" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M27" t="n">
         <v>489.93268031336</v>
@@ -36688,13 +36688,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O27" t="n">
-        <v>396.1615664486372</v>
+        <v>167.1527599185979</v>
       </c>
       <c r="P27" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q29" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L33" t="n">
-        <v>212.9515651312839</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N33" t="n">
-        <v>516.4299455789112</v>
+        <v>436.7100974846449</v>
       </c>
       <c r="O33" t="n">
         <v>396.1615664486372</v>
@@ -37323,7 +37323,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37399,10 +37399,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O36" t="n">
-        <v>167.1527599185979</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
-        <v>212.9515651312839</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M39" t="n">
         <v>489.93268031336</v>
@@ -37636,13 +37636,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
-        <v>396.1615664486372</v>
+        <v>167.1527599185979</v>
       </c>
       <c r="P39" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37873,13 +37873,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O42" t="n">
-        <v>396.1615664486372</v>
+        <v>178.7333419807071</v>
       </c>
       <c r="P42" t="n">
-        <v>76.13858667773572</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
@@ -38107,7 +38107,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N45" t="n">
-        <v>359.864495386846</v>
+        <v>67.19308216129573</v>
       </c>
       <c r="O45" t="n">
         <v>396.1615664486372</v>
